--- a/fhir/ig/mpi/StructureDefinition-AgrupacionPorMarcas.xlsx
+++ b/fhir/ig/mpi/StructureDefinition-AgrupacionPorMarcas.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.3</t>
+    <t>0.1.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-04T11:09:02-03:00</t>
+    <t>2023-10-06T15:57:40-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/mpi/StructureDefinition-AgrupacionPorMarcas.xlsx
+++ b/fhir/ig/mpi/StructureDefinition-AgrupacionPorMarcas.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/ig/mpi/StructureDefinition/AgrupacionPorMarcas</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/mpi/StructureDefinition/AgrupacionPorMarcas</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.4</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-06T15:57:40-03:00</t>
+    <t>2023-10-12T17:29:20-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>MINSAL</t>
+    <t>Unidad de Interoperabilidad - MINSAL</t>
   </si>
   <si>
     <t>Contact</t>
@@ -604,7 +604,7 @@
     <t>Need a formal way of identifying the characteristic being described.</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/ig/mpi/ValueSet/VSGrupoMarcas</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/mpi/ValueSet/VSGrupoMarcas</t>
   </si>
   <si>
     <t>Group.characteristic.code.id</t>
@@ -861,7 +861,7 @@
     <t>Group.member.entity</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://minsal.cl/fhir/ig/mpi/StructureDefinition/PacienteMinsalMPI)
+    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/mpi/StructureDefinition/PacienteMinsalMPI)
 </t>
   </si>
   <si>
@@ -1236,7 +1236,7 @@
     <col min="8" max="8" width="2.1875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="2.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="71.06640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="87.8359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1251,7 +1251,7 @@
     <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="9.33984375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="78.05859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="49.5859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="66.3515625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="10.484375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>

--- a/fhir/ig/mpi/StructureDefinition-AgrupacionPorMarcas.xlsx
+++ b/fhir/ig/mpi/StructureDefinition-AgrupacionPorMarcas.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T17:29:20-03:00</t>
+    <t>2023-10-18T10:23:28-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
